--- a/data/pca/factorExposure/factorExposure_2009-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-26.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01646589229102621</v>
+        <v>0.01587822352037363</v>
       </c>
       <c r="C2">
-        <v>0.002228689976370802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.001623873169797857</v>
+      </c>
+      <c r="D2">
+        <v>0.01053652695648555</v>
+      </c>
+      <c r="E2">
+        <v>0.01792548826528068</v>
+      </c>
+      <c r="F2">
+        <v>-0.006301350243113056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +748,319 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08085674130301444</v>
+        <v>0.08422197013125701</v>
       </c>
       <c r="C4">
-        <v>0.01998003996347095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0159444648263664</v>
+      </c>
+      <c r="D4">
+        <v>0.08772935813452687</v>
+      </c>
+      <c r="E4">
+        <v>-0.05287975060767467</v>
+      </c>
+      <c r="F4">
+        <v>0.01244955835158042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001612447327094315</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0001094583493744321</v>
+      </c>
+      <c r="D5">
+        <v>0.001453435383731427</v>
+      </c>
+      <c r="E5">
+        <v>-0.001065301111452343</v>
+      </c>
+      <c r="F5">
+        <v>-0.003288074167084456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1636979000509478</v>
+        <v>0.167463972893328</v>
       </c>
       <c r="C6">
-        <v>0.04160321298039871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03802977278876965</v>
+      </c>
+      <c r="D6">
+        <v>-0.004658564117121029</v>
+      </c>
+      <c r="E6">
+        <v>-0.05615143840014224</v>
+      </c>
+      <c r="F6">
+        <v>0.007688374237470334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0549849094192589</v>
+        <v>0.05971097534066926</v>
       </c>
       <c r="C7">
-        <v>0.002390503709731271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0005602973157273556</v>
+      </c>
+      <c r="D7">
+        <v>0.05831492137013926</v>
+      </c>
+      <c r="E7">
+        <v>-0.03912607538970973</v>
+      </c>
+      <c r="F7">
+        <v>0.05261098327188989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05782735218159966</v>
+        <v>0.05368718251361686</v>
       </c>
       <c r="C8">
-        <v>-0.009050743943883307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01083575205272881</v>
+      </c>
+      <c r="D8">
+        <v>0.03760725595633209</v>
+      </c>
+      <c r="E8">
+        <v>0.02247888297698332</v>
+      </c>
+      <c r="F8">
+        <v>-0.02003799035040522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06177985152983245</v>
+        <v>0.0653330287350391</v>
       </c>
       <c r="C9">
-        <v>0.01502560164740902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.01110243015853422</v>
+      </c>
+      <c r="D9">
+        <v>0.09294771042347238</v>
+      </c>
+      <c r="E9">
+        <v>-0.07204447710845875</v>
+      </c>
+      <c r="F9">
+        <v>0.01768322358534705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1023681256204248</v>
+        <v>0.096527940733553</v>
       </c>
       <c r="C10">
-        <v>0.02901021216862703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.02859733270093293</v>
+      </c>
+      <c r="D10">
+        <v>-0.1478849869024734</v>
+      </c>
+      <c r="E10">
+        <v>0.09437490926016175</v>
+      </c>
+      <c r="F10">
+        <v>-0.001753868544306917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08213372063048428</v>
+        <v>0.07990752597251725</v>
       </c>
       <c r="C11">
-        <v>0.01684176152323471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.01207070524977339</v>
+      </c>
+      <c r="D11">
+        <v>0.1355175836197904</v>
+      </c>
+      <c r="E11">
+        <v>-0.03807203012043985</v>
+      </c>
+      <c r="F11">
+        <v>-0.009630656223583977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.08608776095970211</v>
+        <v>0.08148077918642617</v>
       </c>
       <c r="C12">
-        <v>0.0142201411112424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.008863605970153454</v>
+      </c>
+      <c r="D12">
+        <v>0.1516216225731191</v>
+      </c>
+      <c r="E12">
+        <v>-0.04016005573301215</v>
+      </c>
+      <c r="F12">
+        <v>0.005086553078237173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04240825922360537</v>
+        <v>0.04249323968859171</v>
       </c>
       <c r="C13">
-        <v>0.008223839473340806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.004071475205090236</v>
+      </c>
+      <c r="D13">
+        <v>0.06657775205715223</v>
+      </c>
+      <c r="E13">
+        <v>-0.01132258636239018</v>
+      </c>
+      <c r="F13">
+        <v>0.01574439843109618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0203711644382458</v>
+        <v>0.02300563894762506</v>
       </c>
       <c r="C14">
-        <v>0.01523937596732132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01425730978296192</v>
+      </c>
+      <c r="D14">
+        <v>0.04554662084734274</v>
+      </c>
+      <c r="E14">
+        <v>-0.03423145030002415</v>
+      </c>
+      <c r="F14">
+        <v>-0.002859774188698689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03023856799546283</v>
+        <v>0.03238604389777508</v>
       </c>
       <c r="C15">
-        <v>0.00794292136502189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.006441369764982881</v>
+      </c>
+      <c r="D15">
+        <v>0.05331816247986002</v>
+      </c>
+      <c r="E15">
+        <v>-0.02791458622703107</v>
+      </c>
+      <c r="F15">
+        <v>0.0127899615989746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.06193009023977319</v>
+        <v>0.06204404313143243</v>
       </c>
       <c r="C16">
-        <v>0.004437295337791637</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.00023579129168358</v>
+      </c>
+      <c r="D16">
+        <v>0.1466653014138365</v>
+      </c>
+      <c r="E16">
+        <v>-0.04871900254299318</v>
+      </c>
+      <c r="F16">
+        <v>-0.01632456708363141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.004041853094612109</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.001199013410815234</v>
+      </c>
+      <c r="D17">
+        <v>0.003241927744294746</v>
+      </c>
+      <c r="E17">
+        <v>0.0005743241796716198</v>
+      </c>
+      <c r="F17">
+        <v>-0.008258289537292306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.03429545942375226</v>
+        <v>0.04952738544370454</v>
       </c>
       <c r="C18">
-        <v>0.001114318806516515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.001516955902559111</v>
+      </c>
+      <c r="D18">
+        <v>0.03526991695614481</v>
+      </c>
+      <c r="E18">
+        <v>0.01411647798355421</v>
+      </c>
+      <c r="F18">
+        <v>-0.001659469048940333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05923605772073616</v>
+        <v>0.05927825596195357</v>
       </c>
       <c r="C20">
-        <v>0.005247204572753351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.002170638005953331</v>
+      </c>
+      <c r="D20">
+        <v>0.09845273876461209</v>
+      </c>
+      <c r="E20">
+        <v>-0.06675394495999362</v>
+      </c>
+      <c r="F20">
+        <v>-0.01147386392651928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04262944533183975</v>
+        <v>0.04433506249564026</v>
       </c>
       <c r="C21">
-        <v>0.01142550459104876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.008886163920811367</v>
+      </c>
+      <c r="D21">
+        <v>0.05579121590254837</v>
+      </c>
+      <c r="E21">
+        <v>0.009682110836724848</v>
+      </c>
+      <c r="F21">
+        <v>0.004813326150644507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04496623401152211</v>
+        <v>0.04332473785119301</v>
       </c>
       <c r="C22">
-        <v>0.00423873910576282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.002311337379924562</v>
+      </c>
+      <c r="D22">
+        <v>0.02235806176831039</v>
+      </c>
+      <c r="E22">
+        <v>0.03905605961930506</v>
+      </c>
+      <c r="F22">
+        <v>-0.1260372285175293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04497541385482154</v>
+        <v>0.0433325847218953</v>
       </c>
       <c r="C23">
-        <v>0.004241567034623126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.002313838143114302</v>
+      </c>
+      <c r="D23">
+        <v>0.02235224423568388</v>
+      </c>
+      <c r="E23">
+        <v>0.03908180091413371</v>
+      </c>
+      <c r="F23">
+        <v>-0.1260758973160443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07013933330402505</v>
+        <v>0.0691354402944038</v>
       </c>
       <c r="C24">
-        <v>0.005997654704063582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.001685944280635036</v>
+      </c>
+      <c r="D24">
+        <v>0.1374633812129208</v>
+      </c>
+      <c r="E24">
+        <v>-0.04477238105507128</v>
+      </c>
+      <c r="F24">
+        <v>0.001043195331354187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07583590709443404</v>
+        <v>0.07383825424264136</v>
       </c>
       <c r="C25">
-        <v>0.008903775248879203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.004663274175038474</v>
+      </c>
+      <c r="D25">
+        <v>0.1255920341289903</v>
+      </c>
+      <c r="E25">
+        <v>-0.02702981470855005</v>
+      </c>
+      <c r="F25">
+        <v>0.02055553210809103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05571170073891393</v>
+        <v>0.06024106619236372</v>
       </c>
       <c r="C26">
-        <v>0.01886179173774809</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.01621566545501823</v>
+      </c>
+      <c r="D26">
+        <v>0.06779410300505528</v>
+      </c>
+      <c r="E26">
+        <v>-0.004384914427132854</v>
+      </c>
+      <c r="F26">
+        <v>-0.007173075318523044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1228,219 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1626803085836215</v>
+        <v>0.1662246713535079</v>
       </c>
       <c r="C28">
-        <v>0.03683876699435199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.03730070112905427</v>
+      </c>
+      <c r="D28">
+        <v>-0.2367444962334702</v>
+      </c>
+      <c r="E28">
+        <v>0.02902933248886186</v>
+      </c>
+      <c r="F28">
+        <v>0.05335297414595828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0240475511641802</v>
+        <v>0.0268729733949028</v>
       </c>
       <c r="C29">
-        <v>0.009564150498635864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.009271720630034378</v>
+      </c>
+      <c r="D29">
+        <v>0.04225908706914154</v>
+      </c>
+      <c r="E29">
+        <v>0.003866715063412734</v>
+      </c>
+      <c r="F29">
+        <v>-0.02141070005801075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04155671000539859</v>
+        <v>0.04347852336838456</v>
       </c>
       <c r="C30">
-        <v>0.004118847313609261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.0008916547504922468</v>
+      </c>
+      <c r="D30">
+        <v>0.07835472010138213</v>
+      </c>
+      <c r="E30">
+        <v>-0.09083691526839942</v>
+      </c>
+      <c r="F30">
+        <v>0.07165890797373325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.0517741431543817</v>
+        <v>0.05169653117461576</v>
       </c>
       <c r="C31">
-        <v>0.02029130923368839</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01770864445317178</v>
+      </c>
+      <c r="D31">
+        <v>0.03722437756114705</v>
+      </c>
+      <c r="E31">
+        <v>-0.01053240334581594</v>
+      </c>
+      <c r="F31">
+        <v>-0.03270502815200513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04279801788701273</v>
+        <v>0.04816088070131438</v>
       </c>
       <c r="C32">
-        <v>0.001186540500708626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.001247939167394343</v>
+      </c>
+      <c r="D32">
+        <v>0.04066434283609362</v>
+      </c>
+      <c r="E32">
+        <v>-0.01539922173704476</v>
+      </c>
+      <c r="F32">
+        <v>-0.02087079991724792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08054535664696792</v>
+        <v>0.08345175111402854</v>
       </c>
       <c r="C33">
-        <v>0.0133483429767602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.008170066850769736</v>
+      </c>
+      <c r="D33">
+        <v>0.1188822301590449</v>
+      </c>
+      <c r="E33">
+        <v>-0.05075978187376178</v>
+      </c>
+      <c r="F33">
+        <v>-0.01209559731648765</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05914261503506949</v>
+        <v>0.05902316413712585</v>
       </c>
       <c r="C34">
-        <v>0.01458756334150769</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.009883171851007247</v>
+      </c>
+      <c r="D34">
+        <v>0.1282821762003825</v>
+      </c>
+      <c r="E34">
+        <v>-0.04870678812772642</v>
+      </c>
+      <c r="F34">
+        <v>0.02297387028096566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02691566380644034</v>
+        <v>0.02844056895344103</v>
       </c>
       <c r="C35">
-        <v>0.005717274283207859</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004824150233076118</v>
+      </c>
+      <c r="D35">
+        <v>0.01746867768619306</v>
+      </c>
+      <c r="E35">
+        <v>-0.01276280753276961</v>
+      </c>
+      <c r="F35">
+        <v>-0.01998673964858428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02251453934853648</v>
+        <v>0.02714896637082466</v>
       </c>
       <c r="C36">
-        <v>0.008760649402937616</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.007752587374487602</v>
+      </c>
+      <c r="D36">
+        <v>0.04885996430161371</v>
+      </c>
+      <c r="E36">
+        <v>-0.03995478621668528</v>
+      </c>
+      <c r="F36">
+        <v>-0.01305073325623165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003536165419126408</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.000774626118937209</v>
+      </c>
+      <c r="D37">
+        <v>0.004603334742829421</v>
+      </c>
+      <c r="E37">
+        <v>0.001380447596430069</v>
+      </c>
+      <c r="F37">
+        <v>-0.0002815345444305008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1448,79 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.08734727901207397</v>
+        <v>0.08119478625159865</v>
       </c>
       <c r="C39">
-        <v>0.0190472658156197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.01363822181254563</v>
+      </c>
+      <c r="D39">
+        <v>0.1524929335584685</v>
+      </c>
+      <c r="E39">
+        <v>-0.02669513761020415</v>
+      </c>
+      <c r="F39">
+        <v>-0.005774495724029859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04452725504333745</v>
+        <v>0.05025597217589405</v>
       </c>
       <c r="C40">
-        <v>0.0130456434891594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01116232431116501</v>
+      </c>
+      <c r="D40">
+        <v>0.05900989886679736</v>
+      </c>
+      <c r="E40">
+        <v>0.01139158181141612</v>
+      </c>
+      <c r="F40">
+        <v>0.003541205670711575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02724769359962387</v>
+        <v>0.02916060017365868</v>
       </c>
       <c r="C41">
-        <v>0.008952859285349099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008185590910635985</v>
+      </c>
+      <c r="D41">
+        <v>0.02515361564944813</v>
+      </c>
+      <c r="E41">
+        <v>0.00467810139017668</v>
+      </c>
+      <c r="F41">
+        <v>-0.005812645243975616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1528,179 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04221624407523377</v>
+        <v>0.04118345688954365</v>
       </c>
       <c r="C43">
-        <v>0.01031751728904006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.009053185119669654</v>
+      </c>
+      <c r="D43">
+        <v>0.03633700058124505</v>
+      </c>
+      <c r="E43">
+        <v>0.003976787940866549</v>
+      </c>
+      <c r="F43">
+        <v>-0.02487697139835602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.05617316925001592</v>
+        <v>0.06400683235549379</v>
       </c>
       <c r="C44">
-        <v>0.02107388953340879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.01857195058761499</v>
+      </c>
+      <c r="D44">
+        <v>0.09025076113718927</v>
+      </c>
+      <c r="E44">
+        <v>-0.2356129440800203</v>
+      </c>
+      <c r="F44">
+        <v>0.06716558234356969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001960116336613938</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-5.521015313403291e-05</v>
+      </c>
+      <c r="D45">
+        <v>5.148475465293289e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0004044796743680111</v>
+      </c>
+      <c r="F45">
+        <v>0.0002350391821819621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0256133773394827</v>
+        <v>0.02635717624586097</v>
       </c>
       <c r="C46">
-        <v>0.005992296124975164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.004671551283595858</v>
+      </c>
+      <c r="D46">
+        <v>0.02832002426899233</v>
+      </c>
+      <c r="E46">
+        <v>0.0005056500263691288</v>
+      </c>
+      <c r="F46">
+        <v>-0.03361864874573254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05192893408465835</v>
+        <v>0.05121605186991405</v>
       </c>
       <c r="C47">
-        <v>0.007808338802026583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.00575325526848031</v>
+      </c>
+      <c r="D47">
+        <v>0.02258105855302039</v>
+      </c>
+      <c r="E47">
+        <v>0.01319898666993442</v>
+      </c>
+      <c r="F47">
+        <v>-0.05267413253017649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04725991092743227</v>
+        <v>0.05111849185903649</v>
       </c>
       <c r="C48">
-        <v>0.006407783751851909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.004034238931939572</v>
+      </c>
+      <c r="D48">
+        <v>0.06452121347042958</v>
+      </c>
+      <c r="E48">
+        <v>-0.01111751218156387</v>
+      </c>
+      <c r="F48">
+        <v>0.02215686446834874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1937543740702752</v>
+        <v>0.1972772264576842</v>
       </c>
       <c r="C49">
-        <v>0.03288954216412242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02756820407227453</v>
+      </c>
+      <c r="D49">
+        <v>-0.005511332580246758</v>
+      </c>
+      <c r="E49">
+        <v>-0.04140964976063451</v>
+      </c>
+      <c r="F49">
+        <v>0.03372498522445126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04964707504872019</v>
+        <v>0.05183317054349133</v>
       </c>
       <c r="C50">
-        <v>0.01560229306053651</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01370624825948021</v>
+      </c>
+      <c r="D50">
+        <v>0.03352156382013268</v>
+      </c>
+      <c r="E50">
+        <v>-0.02164616684508273</v>
+      </c>
+      <c r="F50">
+        <v>-0.01989225389864633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1708,119 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1445174121789739</v>
+        <v>0.1389167571278188</v>
       </c>
       <c r="C52">
-        <v>0.02713889564864612</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.02251072240943544</v>
+      </c>
+      <c r="D52">
+        <v>0.04419700414319812</v>
+      </c>
+      <c r="E52">
+        <v>-0.05860751097145086</v>
+      </c>
+      <c r="F52">
+        <v>-0.02446479138829645</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.176083927148949</v>
+        <v>0.167904579560223</v>
       </c>
       <c r="C53">
-        <v>0.03354565268482951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.02879216359304428</v>
+      </c>
+      <c r="D53">
+        <v>0.02174260899201823</v>
+      </c>
+      <c r="E53">
+        <v>-0.1169622078683043</v>
+      </c>
+      <c r="F53">
+        <v>-0.01725468388392705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01151136007764827</v>
+        <v>0.01497650815435795</v>
       </c>
       <c r="C54">
-        <v>0.01134700858604922</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01044385251150253</v>
+      </c>
+      <c r="D54">
+        <v>0.03481772211100179</v>
+      </c>
+      <c r="E54">
+        <v>-0.008189400578255904</v>
+      </c>
+      <c r="F54">
+        <v>-0.01496373534597953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1204683767750436</v>
+        <v>0.1173886613047518</v>
       </c>
       <c r="C55">
-        <v>0.02812284053829171</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.02453879189812297</v>
+      </c>
+      <c r="D55">
+        <v>0.02241812564683133</v>
+      </c>
+      <c r="E55">
+        <v>-0.07010882871611118</v>
+      </c>
+      <c r="F55">
+        <v>-0.0489633078374286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806767852023338</v>
+        <v>0.1742364857978072</v>
       </c>
       <c r="C56">
-        <v>0.0310365147934808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.0268883321704768</v>
+      </c>
+      <c r="D56">
+        <v>0.009657490443550751</v>
+      </c>
+      <c r="E56">
+        <v>-0.07543494118752253</v>
+      </c>
+      <c r="F56">
+        <v>-0.04135894200314117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1828,379 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04583890977946156</v>
+        <v>0.04562666778106237</v>
       </c>
       <c r="C58">
-        <v>0.004836747230671279</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0008270433869978646</v>
+      </c>
+      <c r="D58">
+        <v>0.1003104260751462</v>
+      </c>
+      <c r="E58">
+        <v>0.007672330606960134</v>
+      </c>
+      <c r="F58">
+        <v>-0.04213080397954579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1786129367977702</v>
+        <v>0.1826738742617037</v>
       </c>
       <c r="C59">
-        <v>0.03516459711651828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.03532686400768768</v>
+      </c>
+      <c r="D59">
+        <v>-0.2014116733317453</v>
+      </c>
+      <c r="E59">
+        <v>0.08269457282625187</v>
+      </c>
+      <c r="F59">
+        <v>-0.00364388674708425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2183725894449249</v>
+        <v>0.2140794222860819</v>
       </c>
       <c r="C60">
-        <v>0.01217196830405714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.006284318925474493</v>
+      </c>
+      <c r="D60">
+        <v>0.02102990337359537</v>
+      </c>
+      <c r="E60">
+        <v>0.01492838352980559</v>
+      </c>
+      <c r="F60">
+        <v>-0.009893135194483626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.06893833476677202</v>
+        <v>0.06532006969608262</v>
       </c>
       <c r="C61">
-        <v>0.01521698531673509</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.01049058854235763</v>
+      </c>
+      <c r="D61">
+        <v>0.1209284968371015</v>
+      </c>
+      <c r="E61">
+        <v>-0.01467377264172046</v>
+      </c>
+      <c r="F61">
+        <v>-0.01573363196692756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1684633407402364</v>
+        <v>0.1649029049796203</v>
       </c>
       <c r="C62">
-        <v>0.03275222898389176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.02860883476359567</v>
+      </c>
+      <c r="D62">
+        <v>0.0108053548288726</v>
+      </c>
+      <c r="E62">
+        <v>-0.0666075973353675</v>
+      </c>
+      <c r="F62">
+        <v>-0.04870178577470319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03838151846839871</v>
+        <v>0.04382038516379778</v>
       </c>
       <c r="C63">
-        <v>0.00497944221877034</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.002851050494699283</v>
+      </c>
+      <c r="D63">
+        <v>0.0710872905211437</v>
+      </c>
+      <c r="E63">
+        <v>-0.01252023266696527</v>
+      </c>
+      <c r="F63">
+        <v>-0.02199142692311728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1114544928015027</v>
+        <v>0.1098650597629673</v>
       </c>
       <c r="C64">
-        <v>0.02135950965199598</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01699588755627592</v>
+      </c>
+      <c r="D64">
+        <v>0.05405057806844817</v>
+      </c>
+      <c r="E64">
+        <v>-0.03408396378510233</v>
+      </c>
+      <c r="F64">
+        <v>-0.005162648276209962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1541438386316441</v>
+        <v>0.1579031085359398</v>
       </c>
       <c r="C65">
-        <v>0.04802968468273761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04502343230870945</v>
+      </c>
+      <c r="D65">
+        <v>-0.03797757814971123</v>
+      </c>
+      <c r="E65">
+        <v>-0.05873615547761971</v>
+      </c>
+      <c r="F65">
+        <v>-0.005172944233223639</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1057001132740624</v>
+        <v>0.09866495419427339</v>
       </c>
       <c r="C66">
-        <v>0.01740568820629986</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.01131685619450549</v>
+      </c>
+      <c r="D66">
+        <v>0.1369625382268037</v>
+      </c>
+      <c r="E66">
+        <v>-0.02845234652256259</v>
+      </c>
+      <c r="F66">
+        <v>-0.002852903435023846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0567169332037618</v>
+        <v>0.04793824626587773</v>
       </c>
       <c r="C67">
-        <v>0.005972994381100688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.003224851273584724</v>
+      </c>
+      <c r="D67">
+        <v>0.06297230696098889</v>
+      </c>
+      <c r="E67">
+        <v>0.05825023301507141</v>
+      </c>
+      <c r="F67">
+        <v>-0.06651040571329883</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1310206717670353</v>
+        <v>0.1356111850274196</v>
       </c>
       <c r="C68">
-        <v>0.04314020340709177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04561415107610835</v>
+      </c>
+      <c r="D68">
+        <v>-0.2527497355244752</v>
+      </c>
+      <c r="E68">
+        <v>0.04199802523771291</v>
+      </c>
+      <c r="F68">
+        <v>0.08676978642779107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03946633865833191</v>
+        <v>0.03919109400430141</v>
       </c>
       <c r="C69">
-        <v>0.004194365655164502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.002893811578978977</v>
+      </c>
+      <c r="D69">
+        <v>0.01348676761250879</v>
+      </c>
+      <c r="E69">
+        <v>-0.01534247989581215</v>
+      </c>
+      <c r="F69">
+        <v>-0.0548896572646966</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.07105961147580302</v>
+        <v>0.07207122927580466</v>
       </c>
       <c r="C70">
-        <v>-0.02121344868923357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.02310008511449172</v>
+      </c>
+      <c r="D70">
+        <v>0.05216773602000918</v>
+      </c>
+      <c r="E70">
+        <v>0.3471939261144681</v>
+      </c>
+      <c r="F70">
+        <v>-0.1634179276542479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1530502730142449</v>
+        <v>0.1586068533113118</v>
       </c>
       <c r="C71">
-        <v>0.05035498786041259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05199338596281445</v>
+      </c>
+      <c r="D71">
+        <v>-0.2561541387125424</v>
+      </c>
+      <c r="E71">
+        <v>0.04580890674575828</v>
+      </c>
+      <c r="F71">
+        <v>0.09527516639117538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1402513524669597</v>
+        <v>0.1462134723032496</v>
       </c>
       <c r="C72">
-        <v>0.03701957851953393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03470720285259891</v>
+      </c>
+      <c r="D72">
+        <v>0.01592093727675834</v>
+      </c>
+      <c r="E72">
+        <v>-0.06425191766756212</v>
+      </c>
+      <c r="F72">
+        <v>-0.03946221291979553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.1930135633272163</v>
+        <v>0.2005929686438682</v>
       </c>
       <c r="C73">
-        <v>0.02580754665770646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01948123896846006</v>
+      </c>
+      <c r="D73">
+        <v>0.03418159826257494</v>
+      </c>
+      <c r="E73">
+        <v>-0.07039929165122255</v>
+      </c>
+      <c r="F73">
+        <v>-0.06669369675789404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08672556502050495</v>
+        <v>0.08686524755615654</v>
       </c>
       <c r="C74">
-        <v>0.01811460139493928</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01556371397803764</v>
+      </c>
+      <c r="D74">
+        <v>0.02057900534409777</v>
+      </c>
+      <c r="E74">
+        <v>-0.08065226299629732</v>
+      </c>
+      <c r="F74">
+        <v>-0.02234474374168093</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1239139528011913</v>
+        <v>0.1170512532622409</v>
       </c>
       <c r="C75">
-        <v>0.03636979146011348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03202797199750924</v>
+      </c>
+      <c r="D75">
+        <v>0.03532438528020345</v>
+      </c>
+      <c r="E75">
+        <v>-0.06224720477235697</v>
+      </c>
+      <c r="F75">
+        <v>-0.06344566988639831</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2208,519 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07389434404367469</v>
+        <v>0.08735466417186862</v>
       </c>
       <c r="C77">
-        <v>0.01416099839828784</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01139394668294709</v>
+      </c>
+      <c r="D77">
+        <v>0.1252341733043927</v>
+      </c>
+      <c r="E77">
+        <v>-0.05547205652809464</v>
+      </c>
+      <c r="F77">
+        <v>0.01635229788960216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09024440319549797</v>
+        <v>0.09295991317451371</v>
       </c>
       <c r="C78">
-        <v>0.04287023629037572</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03978227282073361</v>
+      </c>
+      <c r="D78">
+        <v>0.1397485317635632</v>
+      </c>
+      <c r="E78">
+        <v>-0.05722793577370743</v>
+      </c>
+      <c r="F78">
+        <v>0.02245831500825804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1672881702593418</v>
+        <v>0.1629365001196068</v>
       </c>
       <c r="C79">
-        <v>0.03625101276256008</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.03135977610500029</v>
+      </c>
+      <c r="D79">
+        <v>0.03056780178673243</v>
+      </c>
+      <c r="E79">
+        <v>-0.04212926863707006</v>
+      </c>
+      <c r="F79">
+        <v>-0.04389999785952869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07607775868185368</v>
+        <v>0.07383017555650419</v>
       </c>
       <c r="C80">
-        <v>0.004554386222881745</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.001833896174341707</v>
+      </c>
+      <c r="D80">
+        <v>0.05616901607704159</v>
+      </c>
+      <c r="E80">
+        <v>0.02151987167286264</v>
+      </c>
+      <c r="F80">
+        <v>-0.04666438611458212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1107918182432515</v>
+        <v>0.1052573609383994</v>
       </c>
       <c r="C81">
-        <v>0.03748945962565052</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03476492379755849</v>
+      </c>
+      <c r="D81">
+        <v>0.001250392508221572</v>
+      </c>
+      <c r="E81">
+        <v>-0.04291421540492682</v>
+      </c>
+      <c r="F81">
+        <v>-0.06598617967828983</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1591996341890882</v>
+        <v>0.1574576655666647</v>
       </c>
       <c r="C82">
-        <v>0.0358591711344727</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0315638168792155</v>
+      </c>
+      <c r="D82">
+        <v>-0.005797249711217515</v>
+      </c>
+      <c r="E82">
+        <v>-0.1016288798593702</v>
+      </c>
+      <c r="F82">
+        <v>-0.01156409201959891</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05368662123547679</v>
+        <v>0.04963708308218771</v>
       </c>
       <c r="C83">
-        <v>0.00661446555980035</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.004134105111657654</v>
+      </c>
+      <c r="D83">
+        <v>0.05026641160594704</v>
+      </c>
+      <c r="E83">
+        <v>0.01691567593786086</v>
+      </c>
+      <c r="F83">
+        <v>-0.001892429913056493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0523812760321271</v>
+        <v>0.04971199968288037</v>
       </c>
       <c r="C84">
-        <v>0.01424064948410779</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01131812898572299</v>
+      </c>
+      <c r="D84">
+        <v>0.07734753420247376</v>
+      </c>
+      <c r="E84">
+        <v>-0.008687846599182482</v>
+      </c>
+      <c r="F84">
+        <v>-0.004924572946937271</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1389552207330222</v>
+        <v>0.1338014378609079</v>
       </c>
       <c r="C85">
-        <v>0.03933282230408722</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03519186035050564</v>
+      </c>
+      <c r="D85">
+        <v>0.02331515189599089</v>
+      </c>
+      <c r="E85">
+        <v>-0.08753168909287774</v>
+      </c>
+      <c r="F85">
+        <v>-0.02714253150488111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08529697389522278</v>
+        <v>0.08194094562981524</v>
       </c>
       <c r="C86">
-        <v>-0.001228280639039993</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.005973704759770718</v>
+      </c>
+      <c r="D86">
+        <v>0.09799220137057243</v>
+      </c>
+      <c r="E86">
+        <v>0.5843238255060512</v>
+      </c>
+      <c r="F86">
+        <v>-0.548374627610491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08691125480561483</v>
+        <v>0.08794678280383965</v>
       </c>
       <c r="C87">
-        <v>0.0292880379357708</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.02472450899803942</v>
+      </c>
+      <c r="D87">
+        <v>0.08492914790004798</v>
+      </c>
+      <c r="E87">
+        <v>-0.01546516969137903</v>
+      </c>
+      <c r="F87">
+        <v>0.113870676386296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06261242679754604</v>
+        <v>0.06148410145261634</v>
       </c>
       <c r="C88">
-        <v>0.008002915250392394</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.005314672393882553</v>
+      </c>
+      <c r="D88">
+        <v>0.06701797085103059</v>
+      </c>
+      <c r="E88">
+        <v>-0.01854730801197374</v>
+      </c>
+      <c r="F88">
+        <v>-0.01691644812946991</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1393968903781038</v>
+        <v>0.1432993806638877</v>
       </c>
       <c r="C89">
-        <v>0.02315673634563358</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.02584930300812547</v>
+      </c>
+      <c r="D89">
+        <v>-0.2250092524785428</v>
+      </c>
+      <c r="E89">
+        <v>0.03942107265716009</v>
+      </c>
+      <c r="F89">
+        <v>0.09041223425107042</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1667848410559517</v>
+        <v>0.1751794926997899</v>
       </c>
       <c r="C90">
-        <v>0.04751761261255175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.04977832424357412</v>
+      </c>
+      <c r="D90">
+        <v>-0.2464826508078251</v>
+      </c>
+      <c r="E90">
+        <v>0.06769954195642722</v>
+      </c>
+      <c r="F90">
+        <v>0.1244843188506254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1253825546311514</v>
+        <v>0.1199396637824883</v>
       </c>
       <c r="C91">
-        <v>0.02980815092733854</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.02692725916537706</v>
+      </c>
+      <c r="D91">
+        <v>-0.01038041110978719</v>
+      </c>
+      <c r="E91">
+        <v>-0.03220884733740893</v>
+      </c>
+      <c r="F91">
+        <v>-0.09966095478853673</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1622402257710908</v>
+        <v>0.165792922710229</v>
       </c>
       <c r="C92">
-        <v>0.03800441025915628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.03976515542350201</v>
+      </c>
+      <c r="D92">
+        <v>-0.2838285659038263</v>
+      </c>
+      <c r="E92">
+        <v>0.05399125892209834</v>
+      </c>
+      <c r="F92">
+        <v>0.08465851687780433</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1680231085656756</v>
+        <v>0.176659718613177</v>
       </c>
       <c r="C93">
-        <v>0.04282436850643931</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.04418064115107283</v>
+      </c>
+      <c r="D93">
+        <v>-0.238198769978798</v>
+      </c>
+      <c r="E93">
+        <v>0.02874330354841243</v>
+      </c>
+      <c r="F93">
+        <v>0.0621903840406032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1195737809395268</v>
+        <v>0.1143063537842195</v>
       </c>
       <c r="C94">
-        <v>0.03099573674422688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02663870704510829</v>
+      </c>
+      <c r="D94">
+        <v>0.04581012680854698</v>
+      </c>
+      <c r="E94">
+        <v>-0.0569936207242665</v>
+      </c>
+      <c r="F94">
+        <v>-0.06190561409245823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1217072135932078</v>
+        <v>0.1246901083010084</v>
       </c>
       <c r="C95">
-        <v>0.01365638224187711</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.007864695807996057</v>
+      </c>
+      <c r="D95">
+        <v>0.1236870477923028</v>
+      </c>
+      <c r="E95">
+        <v>-0.008820231302726756</v>
+      </c>
+      <c r="F95">
+        <v>-0.03846828614115351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1871233690879107</v>
+        <v>0.1638523994483598</v>
       </c>
       <c r="C96">
-        <v>-0.9763803826273054</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.9796342512709071</v>
+      </c>
+      <c r="D96">
+        <v>-0.05961337732363843</v>
+      </c>
+      <c r="E96">
+        <v>-0.06127307913475338</v>
+      </c>
+      <c r="F96">
+        <v>-0.0123709037293657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1907327215011421</v>
+        <v>0.1952775312123571</v>
       </c>
       <c r="C97">
-        <v>0.008731211984219327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.003827987998137985</v>
+      </c>
+      <c r="D97">
+        <v>-0.021057563102574</v>
+      </c>
+      <c r="E97">
+        <v>0.1520052593390598</v>
+      </c>
+      <c r="F97">
+        <v>-0.08309248588937383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1940408620166217</v>
+        <v>0.2013078092823737</v>
       </c>
       <c r="C98">
-        <v>0.02248457862084113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01644202463776327</v>
+      </c>
+      <c r="D98">
+        <v>0.01357439413790387</v>
+      </c>
+      <c r="E98">
+        <v>0.1160496845926761</v>
+      </c>
+      <c r="F98">
+        <v>0.041778752102039</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05605728369846612</v>
+        <v>0.05587795998706254</v>
       </c>
       <c r="C99">
-        <v>-0.0001193946135063133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.002488694876900625</v>
+      </c>
+      <c r="D99">
+        <v>0.0613387289525927</v>
+      </c>
+      <c r="E99">
+        <v>-0.007388983197062282</v>
+      </c>
+      <c r="F99">
+        <v>-0.005537524826981936</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1173945535595444</v>
+        <v>0.1097627824000658</v>
       </c>
       <c r="C100">
-        <v>-0.03394179624201421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.04091665363452659</v>
+      </c>
+      <c r="D100">
+        <v>0.3213567772462406</v>
+      </c>
+      <c r="E100">
+        <v>0.5161204433398374</v>
+      </c>
+      <c r="F100">
+        <v>0.6969137073820366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02398038588023468</v>
+        <v>0.02681234401547903</v>
       </c>
       <c r="C101">
-        <v>0.009580131444357903</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.009318359303884492</v>
+      </c>
+      <c r="D101">
+        <v>0.04180854677925071</v>
+      </c>
+      <c r="E101">
+        <v>0.006299609829529376</v>
+      </c>
+      <c r="F101">
+        <v>-0.02259853005661573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
